--- a/test_data/REPORT_test_data/differences_MOCK_DATA.xlsx_mock_data.xlsx
+++ b/test_data/REPORT_test_data/differences_MOCK_DATA.xlsx_mock_data.xlsx
@@ -441,7 +441,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="147" customWidth="1" min="1" max="1"/>
+    <col width="108" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -503,25 +503,25 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>('HU52 9898 4213 5176 1777 7165 5419', 'encompassing')</t>
+          <t>('PL70 3380 5531 5257 6545 0735 9929', 'Multi-layered')</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 1.7833, 23.57441, 23.3]</t>
+          <t>[2019.0, 1.75088, 15.06291, 8.44]</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 0.7833, 23.57441, 23.3]</t>
+          <t>[2019.0, 1.75088, 15.06291, 78.44]</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>[-1.0]</t>
+          <t>[70.0]</t>
         </is>
       </c>
     </row>
@@ -553,32 +553,32 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>('PL70 3380 5531 5257 6545 0735 9929', 'Multi-layered')</t>
+          <t>('HU52 9898 4213 5176 1777 7165 5419', 'encompassing')</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 1.75088, 15.06291, 8.44]</t>
+          <t>[2012.0, 1.7833, 23.57441, 23.3]</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 1.75088, 15.06291, 78.44]</t>
+          <t>[2012.0, 0.7833, 23.57441, 23.3]</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[-1.0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>('FR98 2851 7558 90QW BNYS BCF3 S20', '') missing in C:/Users/15717/Desktop/File_comparator/test_data/package_2\MOCK_DATA.xlsx</t>
+          <t>('IS48 8566 8524 3637 6575 2319 52', '') missing in test_data/package_2\MOCK_DATA.xlsx</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr"/>
@@ -589,7 +589,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>('IS48 8566 8524 3637 6575 2319 52', '') missing in C:/Users/15717/Desktop/File_comparator/test_data/package_2\MOCK_DATA.xlsx</t>
+          <t>('FR98 2851 7558 90QW BNYS BCF3 S20', '') missing in test_data/package_2\MOCK_DATA.xlsx</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>('IS48 8566 8524 3637 6575 2319 52', 'Additional comment89') missing in C:/Users/15717/Desktop/File_comparator/test_data/package_1\MOCK_DATA.xlsx</t>
+          <t>('FR98 284551 7558 90QW BNYS BCF3 S20', '') missing in test_data/package_1\MOCK_DATA.xlsx</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr"/>
@@ -611,7 +611,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>('FR98 284551 7558 90QW BNYS BCF3 S20', '') missing in C:/Users/15717/Desktop/File_comparator/test_data/package_1\MOCK_DATA.xlsx</t>
+          <t>('IS48 8566 8524 3637 6575 2319 52', 'Additional comment89') missing in test_data/package_1\MOCK_DATA.xlsx</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr"/>
